--- a/3_output/sensitivity_hwws/3level/metareg_hw_s4.xlsx
+++ b/3_output/sensitivity_hwws/3level/metareg_hw_s4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55" uniqueCount="17">
   <si>
     <t>r1</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
   </si>
   <si>
     <t>HW ARI freq</t>
@@ -57,6 +54,9 @@
     <t>eform</t>
   </si>
   <si>
+    <t>r4</t>
+  </si>
+  <si>
     <t>HW DD freq</t>
   </si>
   <si>
@@ -70,7 +70,147 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="221">
+  <fonts count="256">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -964,7 +1104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="221">
+  <borders count="256">
     <border>
       <left/>
       <right/>
@@ -2512,11 +2652,256 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -3395,6 +3780,146 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="2" fontId="220" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="221" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="222" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="223" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="224" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="225" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="226" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="227" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="228" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="229" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="230" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="231" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="232" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="233" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="234" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="235" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="236" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="237" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="238" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="239" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="240" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="241" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="242" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="243" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="244" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="245" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="246" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="247" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="248" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="249" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="250" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="251" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="252" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="253" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="254" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="255" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3407,7 +3932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3415,7 +3940,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -3429,529 +3954,519 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>63.639844188034587</v>
+        <v>67.379602216065564</v>
       </c>
       <c r="B2">
-        <v>88.758940982447683</v>
+        <v>81.618158236626115</v>
       </c>
       <c r="C2">
-        <v>68.00513670426021</v>
+        <v>75.362372621742011</v>
       </c>
       <c r="D2">
-        <v>89.494922085505394</v>
+        <v>39.84738987354757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0091646625662892001</v>
+        <v>0.0030878450032066</v>
       </c>
       <c r="B3">
-        <v>0.39787366236957589</v>
+        <v>0.27203433401241189</v>
       </c>
       <c r="C3">
-        <v>0.071194557180926502</v>
+        <v>0.1308693917249554</v>
       </c>
       <c r="D3">
-        <v>0.22133415628478079</v>
+        <v>0.00015128656408170001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="B4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
       <c r="C4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="D4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17">
         <v>0</v>
       </c>
-      <c r="C6" s="23">
-        <v>0.28736347406427898</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.3165759601774773</v>
-      </c>
-      <c r="E6" s="25">
-        <v>-0.34782850368158175</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="87">
+      <c r="C6" s="18">
+        <v>0.29686758912511535</v>
+      </c>
+      <c r="D6" s="19">
         <v>0</v>
       </c>
-      <c r="I6" s="88">
-        <v>0.10799220142586254</v>
-      </c>
-      <c r="J6" s="89">
-        <v>0.31883371199877619</v>
-      </c>
-      <c r="K6" s="90">
-        <v>-0.38888814865238275</v>
-      </c>
-      <c r="M6" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="132">
+      <c r="E6" s="20">
+        <v>-0.34980748188095723</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="82">
         <v>0</v>
       </c>
-      <c r="O6" s="133">
-        <v>0.27070540971175422</v>
-      </c>
-      <c r="P6" s="134">
-        <v>0.21835092127543596</v>
-      </c>
-      <c r="Q6" s="135">
-        <v>-0.2887861045001725</v>
-      </c>
-      <c r="S6" s="176" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="177">
+      <c r="I6" s="83">
+        <v>0.22412897983428251</v>
+      </c>
+      <c r="J6" s="84">
+        <v>0.25408550746689262</v>
+      </c>
+      <c r="K6" s="85">
+        <v>-0.38385763859014066</v>
+      </c>
+      <c r="M6" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="147">
         <v>0</v>
       </c>
-      <c r="U6" s="178">
-        <v>0.36075837415192169</v>
-      </c>
-      <c r="V6" s="179">
-        <v>0.13993077172001531</v>
-      </c>
-      <c r="W6" s="180">
-        <v>-0.44326962739957632</v>
+      <c r="O6" s="148">
+        <v>0.29094493760448814</v>
+      </c>
+      <c r="P6" s="149">
+        <v>0.22582603746631491</v>
+      </c>
+      <c r="Q6" s="150">
+        <v>-0.29636069887002237</v>
+      </c>
+      <c r="S6" s="211" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="212">
+        <v>0</v>
+      </c>
+      <c r="U6" s="213">
+        <v>0.40376020357169357</v>
+      </c>
+      <c r="V6" s="214">
+        <v>0.17397034051093485</v>
+      </c>
+      <c r="W6" s="215">
+        <v>-0.45349201268800798</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28">
-        <v>0.098136723507615584</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0.14481795284484092</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0.082265741965451736</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93">
-        <v>0.17720217432838228</v>
-      </c>
-      <c r="J7" s="94">
-        <v>0.23579441679473859</v>
-      </c>
-      <c r="K7" s="95">
-        <v>0.12379380993609213</v>
-      </c>
-      <c r="M7" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="138">
-        <v>0.15059476504715105</v>
-      </c>
-      <c r="P7" s="139">
-        <v>0.10624230276880078</v>
-      </c>
-      <c r="Q7" s="140">
-        <v>0.081955534659904627</v>
-      </c>
-      <c r="S7" s="181" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="182"/>
-      <c r="U7" s="183">
-        <v>0.20826157790187613</v>
-      </c>
-      <c r="V7" s="184">
-        <v>0.18060157094543566</v>
-      </c>
-      <c r="W7" s="185">
-        <v>0.13838884386240702</v>
+      <c r="A7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23">
+        <v>0.10033192015145187</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25">
+        <v>0.083478690426420865</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88">
+        <v>0.15148550335329247</v>
+      </c>
+      <c r="J7" s="89">
+        <v>0.24985432914268765</v>
+      </c>
+      <c r="K7" s="90">
+        <v>0.10072531525622185</v>
+      </c>
+      <c r="M7" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="152"/>
+      <c r="O7" s="153">
+        <v>0.1770283537788056</v>
+      </c>
+      <c r="P7" s="154">
+        <v>0.13337290027017862</v>
+      </c>
+      <c r="Q7" s="155">
+        <v>0.093388148226915185</v>
+      </c>
+      <c r="S7" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="217"/>
+      <c r="U7" s="218">
+        <v>0.096650085548840581</v>
+      </c>
+      <c r="V7" s="219">
+        <v>0.099678060989454198</v>
+      </c>
+      <c r="W7" s="220">
+        <v>0.069111069852536955</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33">
-        <v>2.9281951118123386</v>
-      </c>
-      <c r="D8" s="34">
-        <v>2.1860270357271192</v>
-      </c>
-      <c r="E8" s="35">
-        <v>-4.2281087530658335</v>
-      </c>
-      <c r="G8" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98">
-        <v>0.60942932464099875</v>
-      </c>
-      <c r="J8" s="99">
-        <v>1.3521681994545449</v>
-      </c>
-      <c r="K8" s="100">
-        <v>-3.1414183702169285</v>
-      </c>
-      <c r="M8" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="142"/>
-      <c r="O8" s="143">
-        <v>1.7975751655576915</v>
-      </c>
-      <c r="P8" s="144">
-        <v>2.0552163835398067</v>
-      </c>
-      <c r="Q8" s="145">
-        <v>-3.5236925205669638</v>
-      </c>
-      <c r="S8" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8" s="187"/>
-      <c r="U8" s="188">
-        <v>1.732236823452358</v>
-      </c>
-      <c r="V8" s="189">
-        <v>0.77480373502560485</v>
-      </c>
-      <c r="W8" s="190">
-        <v>-3.2030734199954494</v>
+      <c r="A8" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28">
+        <v>2.9588548557327643</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30">
+        <v>-4.1903805641187173</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93">
+        <v>1.4795407802921703</v>
+      </c>
+      <c r="J8" s="94">
+        <v>1.0169345807964312</v>
+      </c>
+      <c r="K8" s="95">
+        <v>-3.8109350922724423</v>
+      </c>
+      <c r="M8" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="157"/>
+      <c r="O8" s="158">
+        <v>1.6434934370344971</v>
+      </c>
+      <c r="P8" s="159">
+        <v>1.6931928225962727</v>
+      </c>
+      <c r="Q8" s="160">
+        <v>-3.1734294393537286</v>
+      </c>
+      <c r="S8" s="221" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="222"/>
+      <c r="U8" s="223">
+        <v>4.1775462616394661</v>
+      </c>
+      <c r="V8" s="224">
+        <v>1.745322278383211</v>
+      </c>
+      <c r="W8" s="225">
+        <v>-6.5617854513846892</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38">
-        <v>0.0034093602422547854</v>
-      </c>
-      <c r="D9" s="39">
-        <v>0.028813627418939978</v>
-      </c>
-      <c r="E9" s="40">
-        <v>2.356638822490271e-05</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="103">
-        <v>0.54223990546492362</v>
-      </c>
-      <c r="J9" s="104">
-        <v>0.17632151420838615</v>
-      </c>
-      <c r="K9" s="105">
-        <v>0.0016813166993646788</v>
-      </c>
-      <c r="M9" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="147"/>
-      <c r="O9" s="148">
-        <v>0.072244356775764212</v>
-      </c>
-      <c r="P9" s="149">
-        <v>0.039858109369518196</v>
-      </c>
-      <c r="Q9" s="150">
-        <v>0.00042557780001986249</v>
-      </c>
-      <c r="S9" s="191" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="192"/>
-      <c r="U9" s="193">
-        <v>0.083231405197903841</v>
-      </c>
-      <c r="V9" s="194">
-        <v>0.43845564191664604</v>
-      </c>
-      <c r="W9" s="195">
-        <v>0.0013596931179949026</v>
+      <c r="A9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33">
+        <v>0.0030878450032066356</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35">
+        <v>2.7848697457170524e-05</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="97"/>
+      <c r="I9" s="98">
+        <v>0.13899584056039915</v>
+      </c>
+      <c r="J9" s="99">
+        <v>0.30918455135888739</v>
+      </c>
+      <c r="K9" s="100">
+        <v>0.00013844211720724452</v>
+      </c>
+      <c r="M9" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="162"/>
+      <c r="O9" s="163">
+        <v>0.10028088212316938</v>
+      </c>
+      <c r="P9" s="164">
+        <v>0.090418770336727572</v>
+      </c>
+      <c r="Q9" s="165">
+        <v>0.0015064951512505768</v>
+      </c>
+      <c r="S9" s="226" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="227"/>
+      <c r="U9" s="228">
+        <v>2.9467074388732185e-05</v>
+      </c>
+      <c r="V9" s="229">
+        <v>0.080928786079319151</v>
+      </c>
+      <c r="W9" s="230">
+        <v>5.3167277776441697e-11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43">
-        <v>0.09501903042858717</v>
-      </c>
-      <c r="D10" s="44">
-        <v>0.032737988286769271</v>
-      </c>
-      <c r="E10" s="45">
-        <v>-0.50906639509533247</v>
-      </c>
-      <c r="G10" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108">
-        <v>-0.23931767823995487</v>
-      </c>
-      <c r="J10" s="109">
-        <v>-0.14331485267453786</v>
-      </c>
-      <c r="K10" s="110">
-        <v>-0.63151955763612</v>
-      </c>
-      <c r="M10" s="151" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="152"/>
-      <c r="O10" s="153">
-        <v>-0.0244549060409332</v>
-      </c>
-      <c r="P10" s="154">
-        <v>0.010119834213986378</v>
-      </c>
-      <c r="Q10" s="155">
-        <v>-0.4494160007673097</v>
-      </c>
-      <c r="S10" s="196" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="197"/>
-      <c r="U10" s="198">
-        <v>-0.047426817899238305</v>
-      </c>
-      <c r="V10" s="199">
-        <v>-0.21404180288439398</v>
-      </c>
-      <c r="W10" s="200">
-        <v>-0.71450677723203093</v>
+      <c r="A10" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38">
+        <v>0.10022063912852122</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40">
+        <v>-0.51342270859331074</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103">
+        <v>-0.072777150918092309</v>
+      </c>
+      <c r="J10" s="104">
+        <v>-0.23561997903419157</v>
+      </c>
+      <c r="K10" s="105">
+        <v>-0.58127562882377837</v>
+      </c>
+      <c r="M10" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="167"/>
+      <c r="O10" s="168">
+        <v>-0.056024260044385987</v>
+      </c>
+      <c r="P10" s="169">
+        <v>-0.035580043576887599</v>
+      </c>
+      <c r="Q10" s="170">
+        <v>-0.47939810597766419</v>
+      </c>
+      <c r="S10" s="231" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="232"/>
+      <c r="U10" s="233">
+        <v>0.21432951679325091</v>
+      </c>
+      <c r="V10" s="234">
+        <v>-0.021395069077182305</v>
+      </c>
+      <c r="W10" s="235">
+        <v>-0.58894722053201232</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48">
-        <v>0.47970791769997079</v>
-      </c>
-      <c r="D11" s="49">
-        <v>0.60041393206818539</v>
-      </c>
-      <c r="E11" s="50">
-        <v>-0.18659061226783105</v>
-      </c>
-      <c r="G11" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113">
-        <v>0.45530208109167991</v>
-      </c>
-      <c r="J11" s="114">
-        <v>0.78098227667209019</v>
-      </c>
-      <c r="K11" s="115">
-        <v>-0.14625673966864553</v>
-      </c>
-      <c r="M11" s="156" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="157"/>
-      <c r="O11" s="158">
-        <v>0.56586572546444169</v>
-      </c>
-      <c r="P11" s="159">
-        <v>0.42658200833688553</v>
-      </c>
-      <c r="Q11" s="160">
-        <v>-0.12815620823303533</v>
-      </c>
-      <c r="S11" s="201" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="202"/>
-      <c r="U11" s="203">
-        <v>0.76894356620308169</v>
-      </c>
-      <c r="V11" s="204">
-        <v>0.49390334632442456</v>
-      </c>
-      <c r="W11" s="205">
-        <v>-0.1720324775671217</v>
+      <c r="A11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43">
+        <v>0.49351453912170951</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45">
+        <v>-0.18619225516860374</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108">
+        <v>0.5210351105866573</v>
+      </c>
+      <c r="J11" s="109">
+        <v>0.74379099396797677</v>
+      </c>
+      <c r="K11" s="110">
+        <v>-0.18643964835650301</v>
+      </c>
+      <c r="M11" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="172"/>
+      <c r="O11" s="173">
+        <v>0.63791413525336227</v>
+      </c>
+      <c r="P11" s="174">
+        <v>0.48723211850951742</v>
+      </c>
+      <c r="Q11" s="175">
+        <v>-0.11332329176238051</v>
+      </c>
+      <c r="S11" s="236" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="237"/>
+      <c r="U11" s="238">
+        <v>0.59319089035013617</v>
+      </c>
+      <c r="V11" s="239">
+        <v>0.36933575009905201</v>
+      </c>
+      <c r="W11" s="240">
+        <v>-0.31803680484400365</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="G12" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="120"/>
-      <c r="M12" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="162"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="165"/>
-      <c r="S12" s="206" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="207"/>
-      <c r="U12" s="208"/>
-      <c r="V12" s="209"/>
-      <c r="W12" s="210"/>
+      <c r="A12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="G12" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="112"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+      <c r="M12" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="177"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="180"/>
+      <c r="S12" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="242"/>
+      <c r="U12" s="243"/>
+      <c r="V12" s="244"/>
+      <c r="W12" s="245"/>
     </row>
     <row r="13">
-      <c r="A13" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="57">
+      <c r="A13" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="52">
         <v>1.9599639845400538</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="53">
         <v>1.9599639845400538</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="54">
         <v>1.9599639845400538</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="55">
         <v>1.9599639845400538</v>
       </c>
-      <c r="G13" s="121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="122">
+      <c r="G13" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="117">
         <v>1.9599639845400538</v>
       </c>
-      <c r="I13" s="123">
+      <c r="I13" s="118">
         <v>1.9599639845400538</v>
       </c>
-      <c r="J13" s="124">
+      <c r="J13" s="119">
         <v>1.9599639845400538</v>
       </c>
-      <c r="K13" s="125">
+      <c r="K13" s="120">
         <v>1.9599639845400538</v>
       </c>
-      <c r="M13" s="166" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="167">
+      <c r="M13" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="182">
         <v>1.9599639845400538</v>
       </c>
-      <c r="O13" s="168">
+      <c r="O13" s="183">
         <v>1.9599639845400538</v>
       </c>
-      <c r="P13" s="169">
+      <c r="P13" s="184">
         <v>1.9599639845400538</v>
       </c>
-      <c r="Q13" s="170">
+      <c r="Q13" s="185">
         <v>1.9599639845400538</v>
       </c>
-      <c r="S13" s="211" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="212">
+      <c r="S13" s="246" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="247">
         <v>1.9599639845400538</v>
       </c>
-      <c r="U13" s="213">
+      <c r="U13" s="248">
         <v>1.9599639845400538</v>
       </c>
-      <c r="V13" s="214">
+      <c r="V13" s="249">
         <v>1.9599639845400538</v>
       </c>
-      <c r="W13" s="215">
+      <c r="W13" s="250">
         <v>1.9599639845400538</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="62">
+      <c r="A14" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="57">
         <v>0</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="58">
         <v>0</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="59">
         <v>0</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="60">
         <v>0</v>
       </c>
-      <c r="G14" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="127">
+      <c r="G14" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="122">
         <v>0</v>
       </c>
-      <c r="I14" s="128">
+      <c r="I14" s="123">
         <v>0</v>
       </c>
-      <c r="J14" s="129">
+      <c r="J14" s="124">
         <v>0</v>
       </c>
-      <c r="K14" s="130">
+      <c r="K14" s="125">
         <v>0</v>
       </c>
-      <c r="M14" s="171" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="172">
+      <c r="M14" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="187">
         <v>0</v>
       </c>
-      <c r="O14" s="173">
+      <c r="O14" s="188">
         <v>0</v>
       </c>
-      <c r="P14" s="174">
+      <c r="P14" s="189">
         <v>0</v>
       </c>
-      <c r="Q14" s="175">
+      <c r="Q14" s="190">
         <v>0</v>
       </c>
-      <c r="S14" s="216" t="s">
-        <v>13</v>
-      </c>
-      <c r="T14" s="217">
+      <c r="S14" s="251" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="252">
         <v>0</v>
       </c>
-      <c r="U14" s="218">
+      <c r="U14" s="253">
         <v>0</v>
       </c>
-      <c r="V14" s="219">
+      <c r="V14" s="254">
         <v>0</v>
       </c>
-      <c r="W14" s="220">
+      <c r="W14" s="255">
         <v>0</v>
       </c>
     </row>
@@ -3977,16 +4492,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="7">
-        <v>-0.052317485268748867</v>
+        <v>-0.051196339881246652</v>
       </c>
       <c r="D18" s="8">
-        <v>0.02541291282220582</v>
+        <v>0.02772825374782311</v>
       </c>
       <c r="E18" s="9">
-        <v>-0.10212587914252841</v>
+        <v>-0.10554271858116772</v>
       </c>
       <c r="F18" s="10">
-        <v>-0.0025090913949693261</v>
+        <v>0.0031500388186744069</v>
       </c>
     </row>
     <row r="19">
@@ -3994,101 +4509,220 @@
         <v>2</v>
       </c>
       <c r="C19" s="12">
-        <v>-0.031252543504104426</v>
+        <v>-0.15198026484629601</v>
       </c>
       <c r="D19" s="13">
-        <v>0.061270672051513223</v>
+        <v>0.054520083190875708</v>
       </c>
       <c r="E19" s="14">
-        <v>-0.1513408540336352</v>
+        <v>-0.25883766433453997</v>
       </c>
       <c r="F19" s="15">
-        <v>0.088835767025426338</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="17">
-        <v>-0.13699065237566741</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0.04677101486383628</v>
-      </c>
-      <c r="E20" s="19">
-        <v>-0.22866015702917403</v>
-      </c>
-      <c r="F20" s="20">
-        <v>-0.045321147722160782</v>
+        <v>-0.045122865358052058</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="62">
         <v>-0.38492797116116229</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="63">
         <v>0.10455371822568937</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="64">
         <v>-0.58984949333326253</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="65">
         <v>-0.18000644898906212</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="72">
-        <v>-0.27709286943379563</v>
-      </c>
-      <c r="D26" s="73">
-        <v>0.14969886973080773</v>
-      </c>
-      <c r="E26" s="74">
-        <v>-0.57049726263253198</v>
-      </c>
-      <c r="F26" s="75">
-        <v>0.016311523764940716</v>
+      <c r="C26" s="67">
+        <v>-0.16003769316320088</v>
+      </c>
+      <c r="D26" s="68">
+        <v>0.11053561937589784</v>
+      </c>
+      <c r="E26" s="69">
+        <v>-0.37668352614878842</v>
+      </c>
+      <c r="F26" s="70">
+        <v>0.056608139822386605</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="77">
-        <v>0.012629055933622856</v>
-      </c>
-      <c r="D27" s="78">
-        <v>0.033895072755147339</v>
-      </c>
-      <c r="E27" s="79">
-        <v>-0.053804065919830738</v>
-      </c>
-      <c r="F27" s="80">
-        <v>0.079062177787076457</v>
+      <c r="C27" s="72">
+        <v>-0.089158684199960606</v>
+      </c>
+      <c r="D27" s="73">
+        <v>0.13210066987484964</v>
+      </c>
+      <c r="E27" s="74">
+        <v>-0.34807123948828117</v>
+      </c>
+      <c r="F27" s="75">
+        <v>0.16975387108835993</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="82">
-        <v>-0.29250182476784642</v>
-      </c>
-      <c r="D28" s="83">
-        <v>0.076570312506751795</v>
-      </c>
-      <c r="E28" s="84">
-        <v>-0.44257687956605679</v>
-      </c>
-      <c r="F28" s="85">
-        <v>-0.14242676996963608</v>
+      <c r="B28" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="77">
+        <v>-0.26871105102937826</v>
+      </c>
+      <c r="D28" s="78">
+        <v>0.065492864619968685</v>
+      </c>
+      <c r="E28" s="79">
+        <v>-0.39707470692887437</v>
+      </c>
+      <c r="F28" s="80">
+        <v>-0.14034739512988212</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="127">
+        <v>-0.30844123916540411</v>
+      </c>
+      <c r="D33" s="128">
+        <v>0.13019170052615289</v>
+      </c>
+      <c r="E33" s="129">
+        <v>-0.5636122832826882</v>
+      </c>
+      <c r="F33" s="130">
+        <v>-0.053270195048120084</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="132">
+        <v>0.027675044726657265</v>
+      </c>
+      <c r="D34" s="133">
+        <v>0.20495481696796836</v>
+      </c>
+      <c r="E34" s="134">
+        <v>-0.37402901498855939</v>
+      </c>
+      <c r="F34" s="135">
+        <v>0.42937910444187394</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="137">
+        <v>-0.064969082194415911</v>
+      </c>
+      <c r="D35" s="138">
+        <v>0.052830786101867769</v>
+      </c>
+      <c r="E35" s="139">
+        <v>-0.16851552022901595</v>
+      </c>
+      <c r="F35" s="140">
+        <v>0.038577355840184124</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="142">
+        <v>-0.15198026484629601</v>
+      </c>
+      <c r="D36" s="143">
+        <v>0.054520083190875708</v>
+      </c>
+      <c r="E36" s="144">
+        <v>-0.25883766433453997</v>
+      </c>
+      <c r="F36" s="145">
+        <v>-0.045122865358052058</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="192">
+        <v>-0.45540687453664519</v>
+      </c>
+      <c r="D41" s="193">
+        <v>0.065533251796119602</v>
+      </c>
+      <c r="E41" s="194">
+        <v>-0.58384968784683444</v>
+      </c>
+      <c r="F41" s="195">
+        <v>-0.32696406122645599</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="197">
+        <v>-0.049602346680793247</v>
+      </c>
+      <c r="D42" s="198">
+        <v>0.067164572766745187</v>
+      </c>
+      <c r="E42" s="199">
+        <v>-0.18124249034063353</v>
+      </c>
+      <c r="F42" s="200">
+        <v>0.082037796979047034</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="202">
+        <v>-0.27281793348868161</v>
+      </c>
+      <c r="D43" s="203">
+        <v>0.076713374346525684</v>
+      </c>
+      <c r="E43" s="204">
+        <v>-0.42317338434041085</v>
+      </c>
+      <c r="F43" s="205">
+        <v>-0.12246248263695239</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="207">
+        <v>-0.26871105102937826</v>
+      </c>
+      <c r="D44" s="208">
+        <v>0.065492864619968685</v>
+      </c>
+      <c r="E44" s="209">
+        <v>-0.39707470692887437</v>
+      </c>
+      <c r="F44" s="210">
+        <v>-0.14034739512988212</v>
       </c>
     </row>
   </sheetData>
